--- a/Applicants Node Operation Manual_English.xlsx
+++ b/Applicants Node Operation Manual_English.xlsx
@@ -1,50 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\DirectorsCommon\06_Alliance\JCBI\20_ETH導入\_配布用_Node構築手順書\applicants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\sanpo\applicant-node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0223B0CC-F7EC-4FFA-94A3-4F0CC71D6E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396BFA8C-49B4-4082-A85A-9535F9970E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="1230" windowWidth="23745" windowHeight="13095" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
-    <sheet name="Mainnet Nodes" sheetId="11" r:id="rId2"/>
-    <sheet name="Test Net Environment" sheetId="2" r:id="rId3"/>
-    <sheet name="1.Install geth" sheetId="5" r:id="rId4"/>
-    <sheet name="2.Start geth" sheetId="3" r:id="rId5"/>
-    <sheet name="3.Check connection status" sheetId="4" r:id="rId6"/>
-    <sheet name="4.Stop geth" sheetId="8" r:id="rId7"/>
-    <sheet name="Ref. Local environment " sheetId="10" r:id="rId8"/>
+    <sheet name="1.Install geth" sheetId="5" r:id="rId2"/>
+    <sheet name="2.Start geth" sheetId="3" r:id="rId3"/>
+    <sheet name="3.Check connection status" sheetId="4" r:id="rId4"/>
+    <sheet name="4.Stop geth" sheetId="8" r:id="rId5"/>
+    <sheet name="Ref. Local environment " sheetId="10" r:id="rId6"/>
+    <sheet name="Ref. Websocket RPC call" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
-  <si>
-    <t>54.92.8.15</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>enode</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
   <si>
     <t>admin.peers</t>
     <phoneticPr fontId="2"/>
@@ -71,26 +68,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>初期接続ノードの設定</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gethの起動</t>
-    <rPh sb="5" eb="7">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>admin.nodeInfo.enode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -141,14 +118,6 @@
   </si>
   <si>
     <t>geth attach --datadir ~/jcbi_geth/data</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>enode://35c46e78099ed8b7edd6dfe47f57e19d275252c9444e52b8efb289aa7008ddd41562021df12eaf55801eb18b8fe4f3ae5434cbd644941a58a0a7f6479f75b32e@54.92.8.15:21000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Corridors</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -401,10 +370,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nodes</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Installation procedure of geth</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -491,10 +456,6 @@
   </si>
   <si>
     <t>Move to directory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Deploy genesis.json distributed by JCBI Technology Subcommittee in the current directory</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -527,10 +488,6 @@
 INFO [07-26|09:01:40.919] Writing custom genesis block 
 INFO [07-26|09:01:40.919] Persisted trie from memory database      nodes=0 size=0.00B time="1.686µs"  gcnodes=0 gcsize=0.00B gctime=0s livenodes=1 livesize=0.00B
 INFO [07-26|09:01:40.919] Successfully wrote genesis state         database=lightchaindata hash=cb0c3b..262584</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Deploy nodes_applicants.json distributed by JCBI Technology Subcommittee in the current directory</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -664,11 +621,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・applicants
-In the displayed node information, check that the red framed part (enode, remoteAddress) in the figure below is the same as the corridors node list distributed by the JCBI Technical Subcommittee.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(Example of execution result)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -804,15 +756,59 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Signer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>52.193.107.139</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0x3ad0c89d54a45f61f2b897a9ebf0c094de72a662</t>
+    <t xml:space="preserve">Build a Local environment </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Connect to a Websocket server running on a Corridor node.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>After connected, Call RPC.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Method of RPC calls to Corridor nodes.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>How to execute an RPC call to a Corridor node</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sample javascript implementation code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"use strict"
+const Web3 = require('web3');
+const url = "wss://cethereum-corridor.singulanode.net/ws";
+;(async () =&gt; {
+  const provider = new Web3.providers.WebsocketProvider(url); // Connect to a Websocket server running on a Corridor node.
+  const web3 = new Web3(provider);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  const abi = [ REPLACE_WITH_ABI_JSON ];
+  const contractAddress = "REPLACE_WITH_CONTRACT_ADDRESS_STRING";
+  const contract = new web3.eth.Contract(abi, contractAddress);
+  contract.methods.balanceOf(0, address).call().then(result =&gt; { // After connected, Call RPC.
+    console.log(result);
+    process.exit();
+  });
+})();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Testnet Corridor Node</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mainnet Corridor Node</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -820,11 +816,48 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>IP Address</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Build a Local environment </t>
+    <t>ws RPC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>enode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>enode://9430de384c3de78870a5bde01ee86a35c7cf69180847e9d42bd18def81b8a9ebb399d14943fda5efdc7c4937b399c304d443ec170f6d797538e1e8335035d7d9@54.92.8.15:21000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wss://cethereum-corridor.singulanode.net:443/ws</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wss://jcbi-corridor-sn.singuladev.net:443/ws</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Multiple Corridor nodes can exist.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Deploy genesis.json distributed by Github.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Deploy nodes_applicants.json distributed by  distributed by Github</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・applicants
+In the displayed node information, check that the red framed part (enode, remoteAddress) in the figure below is the same as static-nodes.json.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Configuration of initial connection nodes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Starting geth</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -832,7 +865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,6 +921,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -921,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1078,17 +1119,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1148,18 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1227,21 +1263,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1266,7 +1287,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1282,17 +1302,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1327,15 +1368,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1482,15 +1523,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>14716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1639,13 +1680,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>14716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1813,15 +1854,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1837,8 +1878,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1197430" y="1175657"/>
-          <a:ext cx="957941" cy="783772"/>
+          <a:off x="1624853" y="1008529"/>
+          <a:ext cx="986117" cy="806824"/>
           <a:chOff x="3605840" y="2570671"/>
           <a:chExt cx="854015" cy="595224"/>
         </a:xfrm>
@@ -2290,15 +2331,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2314,8 +2355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5268686" y="1175657"/>
-          <a:ext cx="957943" cy="783772"/>
+          <a:off x="7608794" y="1008529"/>
+          <a:ext cx="986117" cy="806824"/>
           <a:chOff x="3605840" y="2570671"/>
           <a:chExt cx="854015" cy="595224"/>
         </a:xfrm>
@@ -2769,15 +2810,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2793,8 +2834,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10297886" y="1175657"/>
-          <a:ext cx="957943" cy="783772"/>
+          <a:off x="12505765" y="1008529"/>
+          <a:ext cx="986117" cy="806824"/>
           <a:chOff x="3605840" y="2570671"/>
           <a:chExt cx="854015" cy="595224"/>
         </a:xfrm>
@@ -3246,15 +3287,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3338,247 +3379,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="フローチャート: 書類 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FE5A8F-94A2-4B92-A423-85621D99C9A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10847293" y="2218765"/>
-          <a:ext cx="2958353" cy="1613647"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[static-node.json]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Authorities</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>enode://A-Node1@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ipaddress</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:21000</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>enode://A-Node2@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ipaddress</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:21000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>enode://A-Node3@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ipaddress</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:21000</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>200028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3624,16 +3433,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>21000</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -3648,521 +3447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>202067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>1600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2039</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752D137B-6453-4405-B446-01DC3C41F997}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="3"/>
-          <a:endCxn id="32" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8572501" y="2651353"/>
-          <a:ext cx="1599" cy="3678007"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 11971044"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25704B06-D36A-4207-AF20-7E4D6D43AD2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="21" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9121589" y="2621339"/>
-          <a:ext cx="493059" cy="839"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A9A6DF-A897-4E83-99D1-87F246EC96D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8817429" y="5919108"/>
-          <a:ext cx="4408714" cy="816428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Authority-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Node2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4079</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="円柱 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44DB46F-E260-469E-BE90-867CB5A49A45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8611282" y="6084432"/>
-          <a:ext cx="412294" cy="489858"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 43968"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>21000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A90560-70D9-4DC1-B581-3B9D75105AFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8817429" y="7143751"/>
-          <a:ext cx="4408714" cy="816428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Authority-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Node3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>4080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="円柱 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D4F54D-5649-40C3-B78B-A5C82F557C41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8611281" y="7309075"/>
-          <a:ext cx="412294" cy="489858"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 43968"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>21000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2039</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>2039</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="コネクタ: カギ線 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B6659F-1D00-4091-B138-70EBD7ABC859}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="3"/>
-          <a:endCxn id="35" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8572500" y="6329360"/>
-          <a:ext cx="1" cy="1224643"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18981900000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>201704</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4247,247 +3541,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="フローチャート: 書類 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C262E1-EC83-4E26-9334-B9ED70398B0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5670175" y="2218765"/>
-          <a:ext cx="2958353" cy="1613647"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[static-node.json]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Authorities</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>enode://A-Node1@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ipaddress</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:21000</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>enode://A-Node2@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ipaddress</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:21000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>enode://A-Node3@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ipaddress</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:21000</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4503,7 +3565,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3495396" y="1367957"/>
+          <a:off x="6207219" y="1771369"/>
           <a:ext cx="405091" cy="493059"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -4557,311 +3619,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>839</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2040</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="コネクタ: カギ線 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0415237E-3F99-4563-B6FD-822411072A26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="3"/>
-          <a:endCxn id="32" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="3451411" y="1614486"/>
-          <a:ext cx="5177117" cy="3631907"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3566"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E243609-A8D8-447A-A2F8-8B8A93FE06C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3697941" y="6051176"/>
-          <a:ext cx="4437529" cy="806824"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Corridor-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Node2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1679</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="円柱 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05F015D-380D-46BA-A229-BEC9E88018A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3495396" y="6208898"/>
-          <a:ext cx="405091" cy="493059"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 43968"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>21000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>840</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF45923D-5DA0-41B6-B149-BAB5189D2EE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="3"/>
-          <a:endCxn id="49" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3451413" y="5246394"/>
-          <a:ext cx="5177117" cy="1209034"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 103566"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>840</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4880,8 +3646,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3944471" y="1613647"/>
-          <a:ext cx="493058" cy="840"/>
+          <a:off x="6656295" y="1613647"/>
+          <a:ext cx="1445559" cy="404252"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4913,115 +3679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="吹き出し: 角を丸めた四角形 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E79C96C-30FF-4695-A499-20A9B2D26BAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7597588" y="459441"/>
-          <a:ext cx="1759324" cy="773206"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 22479"/>
-            <a:gd name="adj2" fmla="val 66848"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Only AuthoritiesNode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>or CorridorsNode</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5036,8 +3703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3711388" y="831476"/>
-          <a:ext cx="1255059" cy="354107"/>
+          <a:off x="5031441" y="459440"/>
+          <a:ext cx="930090" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5074,14 +3741,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>No Restriction</a:t>
+            <a:t>ws RPC</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -5099,13 +3766,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5191,15 +3858,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5263,76 +3930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>840</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAFCB5E-FD8F-4E32-AE12-6575E108CB2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="3"/>
-          <a:endCxn id="15" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4191001" y="1613647"/>
-          <a:ext cx="493059" cy="840"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13540</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>840</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5350,8 +3957,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5177118" y="1614487"/>
-          <a:ext cx="1232647" cy="12700"/>
+          <a:off x="3944471" y="1614487"/>
+          <a:ext cx="2218764" cy="403412"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5385,189 +3992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>840</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>840</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CEAA96-A615-46A4-A10A-3433750EFFA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="1"/>
-          <a:endCxn id="49" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5177118" y="1614487"/>
-          <a:ext cx="1232647" cy="4840941"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>96370</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>141194</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="吹き出し: 角を丸めた四角形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE714A9-AD30-4F35-8FCB-55333E7071DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6506135" y="1288676"/>
-          <a:ext cx="1337983" cy="667871"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -61597"/>
-            <a:gd name="adj2" fmla="val 17573"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>non mining</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>non RPC</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5582,8 +4016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12572999" y="3832413"/>
-          <a:ext cx="1232647" cy="403412"/>
+          <a:off x="13559117" y="2420470"/>
+          <a:ext cx="1232648" cy="403412"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -5682,15 +4116,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5706,7 +4140,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7395881" y="3832413"/>
+          <a:off x="8628529" y="2420471"/>
           <a:ext cx="1232647" cy="403411"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -5795,588 +4229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>134468</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="フローチャート: 書類 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C133142-D18D-4E39-886B-DAA59A277F88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2465294" y="3630707"/>
-          <a:ext cx="1232647" cy="403411"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[genesis.json]</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="フローチャート: 書類 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1F3816-8E7E-47B4-8D31-A8B0BDF331AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="739587" y="2218765"/>
-          <a:ext cx="2958353" cy="1411941"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[static-node.json]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Corridors</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>enode://C-Node1@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ipaddress</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:21000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>enode://C-Node2@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ipaddress</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>:21000</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>201705</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="円柱 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2887307-0A27-49C1-AB1A-2A6BFE6C9512}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="14096160" y="1366278"/>
-          <a:ext cx="405091" cy="493058"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 43968"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>any</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>44822</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="四角形: 角を丸くする 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D781B3F0-8DF1-4CE7-AE57-9910D6B80B84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15284824" y="1210236"/>
-          <a:ext cx="1232647" cy="806824"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Applications</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200867</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="コネクタ: カギ線 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A54E1F-BD98-4B3D-9A9C-435E5D89E358}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="1"/>
-          <a:endCxn id="77" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="14545236" y="1612808"/>
-          <a:ext cx="739589" cy="840"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>201705</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="コネクタ: カギ線 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282BB942-731B-4566-AAF4-F3084498404C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="3"/>
-          <a:endCxn id="9" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11586883" y="1612807"/>
-          <a:ext cx="2465295" cy="839"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89894</xdr:rowOff>
+      <xdr:rowOff>56276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6391,8 +4253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829734" y="1378324"/>
-          <a:ext cx="649941" cy="325217"/>
+          <a:off x="6051174" y="1949824"/>
+          <a:ext cx="649942" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6522,16 +4384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>174811</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>174812</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85163</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96617</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>18177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6546,8 +4408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2147046" y="1385047"/>
-          <a:ext cx="649941" cy="325217"/>
+          <a:off x="2707341" y="1306607"/>
+          <a:ext cx="649940" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6677,151 +4539,74 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>45070</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="テキスト ボックス 359">
+        <xdr:cNvPr id="55" name="円柱 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFF7D09-67C1-4E21-BD4D-18F667625196}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883C4922-638C-48A7-A755-4AC00913C29C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10062883" y="1333500"/>
-          <a:ext cx="649941" cy="325217"/>
+        <a:xfrm rot="5400000">
+          <a:off x="6207219" y="962867"/>
+          <a:ext cx="405091" cy="493058"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 43968"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" b="0">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>peer</a:t>
+            <a:t>443</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="0">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6832,23 +4617,206 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>96371</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>118782</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>6724</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>40587</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="テキスト ボックス 359">
+        <xdr:cNvPr id="66" name="円柱 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F269E550-79A1-4A97-9471-0CE6A4C38D29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C4DE69-6D97-46DF-8646-6A4618BE1D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10644748" y="1366279"/>
+          <a:ext cx="405091" cy="493058"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 43968"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="コネクタ: カギ線 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6E2B58-9933-4850-93F1-E05ECCC8B707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="12" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9087971" y="1612809"/>
+          <a:ext cx="1512795" cy="838"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="コネクタ: カギ線 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4317DDF3-5658-4BCC-8DFC-AD181CF7E83B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="1"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6656294" y="1209397"/>
+          <a:ext cx="1445559" cy="404250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>136711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>24653</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>58518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2240773B-B61B-4501-A789-CA95094688C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6856,8 +4824,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12422842" y="1329017"/>
-          <a:ext cx="649941" cy="325217"/>
+          <a:off x="6277535" y="741829"/>
+          <a:ext cx="649942" cy="325218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6985,6 +4953,616 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="吹き出し: 角を丸めた四角形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653D0766-4A52-45FE-8E81-CDBC990DFF4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5205893" y="2393576"/>
+          <a:ext cx="789254" cy="385483"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30075"/>
+            <a:gd name="adj2" fmla="val -83561"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>enode</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219636</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="フローチャート: 書類 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4E7704-BE29-4C97-AAEA-E71AC9892C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="712695" y="2431677"/>
+          <a:ext cx="1349188" cy="430305"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[static-nodes.json]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="フローチャート: 定義済み処理 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEDA8E9-F2DA-A3ED-536B-F5C4D3EB4CDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1008529"/>
+          <a:ext cx="1232647" cy="392207"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>196104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200868</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43EE774-0417-F6C9-1F53-8D7672376C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="55" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5423647" y="1204633"/>
+          <a:ext cx="739589" cy="4764"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="フローチャート: 書類 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C133142-D18D-4E39-886B-DAA59A277F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1479177" y="2420471"/>
+          <a:ext cx="1232647" cy="430304"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[genesis.json]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A70699-24F6-9EF0-9A85-68B43682E4E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="4"/>
+          <a:endCxn id="60" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2610970" y="1613647"/>
+          <a:ext cx="840442" cy="840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48FA4B7-4538-40D2-B0C6-5676B1CC8AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12079940" y="1612809"/>
+          <a:ext cx="918883" cy="838"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200868</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9577A26F-2A32-449F-8B5A-58997AE272D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="1"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11093823" y="1612809"/>
+          <a:ext cx="493058" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7059,8 +5637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4589929" y="7700682"/>
-          <a:ext cx="8499810" cy="2920123"/>
+          <a:off x="4580964" y="7857565"/>
+          <a:ext cx="8504293" cy="2920123"/>
           <a:chOff x="4464425" y="6326542"/>
           <a:chExt cx="8645594" cy="2972472"/>
         </a:xfrm>
@@ -7485,15 +6063,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="Y15:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.19921875" style="1"/>
+    <col min="1" max="45" width="3.25" style="1"/>
+    <col min="46" max="46" width="3.25" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="3.25" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="15" spans="33:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="33:33" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AG16" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="25:42" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AG17" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="25:42" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AG18" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="25:42" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="25:42" x14ac:dyDescent="0.25">
+      <c r="AC20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="25:42" x14ac:dyDescent="0.25">
+      <c r="Y22" s="57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="25:42" x14ac:dyDescent="0.25">
+      <c r="Y23" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="67"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="67"/>
+    </row>
+    <row r="24" spans="25:42" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+    </row>
+    <row r="25" spans="25:42" x14ac:dyDescent="0.25">
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+    </row>
+    <row r="26" spans="25:42" x14ac:dyDescent="0.25">
+      <c r="Y26" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+    </row>
+    <row r="27" spans="25:42" x14ac:dyDescent="0.25">
+      <c r="Y27" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="67"/>
+      <c r="AI27" s="67"/>
+      <c r="AJ27" s="67"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="67"/>
+      <c r="AM27" s="67"/>
+      <c r="AN27" s="67"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="67"/>
+    </row>
+    <row r="28" spans="25:42" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+    </row>
+    <row r="29" spans="25:42" x14ac:dyDescent="0.25">
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+    </row>
+    <row r="30" spans="25:42" x14ac:dyDescent="0.25">
+      <c r="Y30" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC28:AP28"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AP24"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AP23"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="AC27:AP27"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7501,123 +6280,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA0DA1-981F-4CE6-99D9-65F393F50732}">
-  <dimension ref="B2:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C923CD88-22FD-49D2-8969-10F24C7334DC}">
+  <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="3" style="68" customWidth="1"/>
-    <col min="3" max="3" width="4" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.19921875" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.09765625" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="126.69921875" style="68" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="68"/>
+    <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="67.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="68" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="22"/>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="24"/>
+      <c r="C10" s="51" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="70">
-        <v>1</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F13" s="72"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F14" s="72"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EEF5BA-AA39-494F-8EE6-F1013405726F}">
-  <dimension ref="B2:E6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="127.3984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7626,318 +6388,209 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C923CD88-22FD-49D2-8969-10F24C7334DC}">
-  <dimension ref="B1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="1.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.09765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="67.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.59765625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="28"/>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28"/>
-      <c r="C8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="2:5" ht="108" x14ac:dyDescent="0.45">
-      <c r="B10" s="30"/>
-      <c r="C10" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0C7F6F-72E4-4424-A23F-F2692F189F44}">
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.59765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="2.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="15" t="s">
+      <c r="D8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" ht="223.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29"/>
+      <c r="C9" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="9"/>
+      <c r="C11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="30.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="16"/>
-      <c r="C6" s="12" t="s">
+    </row>
+    <row r="12" spans="2:5" ht="63" x14ac:dyDescent="0.4">
+      <c r="B12" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B7" s="16"/>
-      <c r="C7" s="38" t="s">
+    </row>
+    <row r="13" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" ht="101.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="37"/>
+      <c r="C14" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D14" s="31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="30.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28"/>
-      <c r="C8" s="39" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" ht="205.2" x14ac:dyDescent="0.45">
-      <c r="B9" s="35"/>
-      <c r="C9" s="64" t="s">
+      <c r="D15" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" ht="123.75" x14ac:dyDescent="0.4">
+      <c r="B16" s="40"/>
+      <c r="C16" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.45">
-      <c r="B10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="38" t="s">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="40"/>
+      <c r="C17" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B11" s="26"/>
-      <c r="C11" s="18" t="s">
+      <c r="D17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="41"/>
+      <c r="C18" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.45">
-      <c r="B12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B13" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="2:5" ht="97.2" x14ac:dyDescent="0.45">
-      <c r="B14" s="43"/>
-      <c r="C14" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="2:5" ht="118.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="46"/>
-      <c r="C16" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="46"/>
-      <c r="C17" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="B18" s="47"/>
-      <c r="C18" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7945,127 +6598,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA7B77-6E70-4E2A-9AB2-0A993DE8EE42}">
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+    <row r="1" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="2:5" ht="303.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="2:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="248.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="2:5" ht="303.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-    </row>
-    <row r="9" spans="2:5" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="248.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
   </sheetData>
@@ -8083,74 +6736,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43F4372-FCAB-4877-B23A-51140782DA5B}">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.8984375" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="11"/>
-      <c r="C6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
     </row>
   </sheetData>
@@ -8160,388 +6813,388 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BFD22-6B10-4700-B5C7-0BD932967008}">
   <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.8984375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.8984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="189.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="189.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="50" t="s">
+    <row r="1" spans="2:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" ht="303" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" ht="252" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" ht="189" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+      <c r="C16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="16"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="53"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="16"/>
-      <c r="C7" s="50" t="s">
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="14"/>
+      <c r="C17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="303" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="16"/>
-      <c r="C8" s="67" t="s">
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B18" s="14"/>
+      <c r="C18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B19" s="14"/>
+      <c r="C19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="51"/>
-      <c r="C9" s="9" t="s">
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" ht="141.75" x14ac:dyDescent="0.4">
+      <c r="B20" s="14"/>
+      <c r="C20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B21" s="14"/>
+      <c r="C21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="236.25" x14ac:dyDescent="0.4">
+      <c r="B22" s="14"/>
+      <c r="C22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="53"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="53"/>
-    </row>
-    <row r="11" spans="2:6" ht="240" x14ac:dyDescent="0.45">
-      <c r="B11" s="16"/>
-      <c r="C11" s="9" t="s">
+      <c r="D22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="53"/>
-    </row>
-    <row r="12" spans="2:6" ht="180" x14ac:dyDescent="0.45">
-      <c r="B12" s="16"/>
-      <c r="C12" s="7" t="s">
+      <c r="D23" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="42"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="14"/>
+      <c r="C25" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="14"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="14"/>
+      <c r="C27" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="9"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="53"/>
-    </row>
-    <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.45">
-      <c r="B13" s="16"/>
-      <c r="C13" s="7" t="s">
+      <c r="D29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="2:5" ht="204.75" x14ac:dyDescent="0.4">
+      <c r="B30" s="22"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5" ht="63" x14ac:dyDescent="0.4">
+      <c r="B31" s="22"/>
+      <c r="C31" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="53"/>
-    </row>
-    <row r="14" spans="2:6" ht="75" x14ac:dyDescent="0.45">
-      <c r="B14" s="16"/>
-      <c r="C14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="53"/>
-    </row>
-    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.45">
-      <c r="B15" s="16"/>
-      <c r="C15" s="7" t="s">
+      <c r="D31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B32" s="22"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="22"/>
+      <c r="C33" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="53"/>
-    </row>
-    <row r="16" spans="2:6" ht="75" x14ac:dyDescent="0.45">
-      <c r="B16" s="16"/>
-      <c r="C16" s="9" t="s">
+      <c r="D33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" ht="204.75" x14ac:dyDescent="0.4">
+      <c r="B34" s="22"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="2:5" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B35" s="22"/>
+      <c r="C35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="53"/>
-    </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B17" s="16"/>
-      <c r="C17" s="7" t="s">
+      <c r="D35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="2:5" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="B36" s="22"/>
+      <c r="C36" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="53"/>
-    </row>
-    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B18" s="16"/>
-      <c r="C18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="53"/>
-    </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B19" s="16"/>
-      <c r="C19" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="53"/>
-    </row>
-    <row r="20" spans="2:5" ht="135" x14ac:dyDescent="0.45">
-      <c r="B20" s="16"/>
-      <c r="C20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="53"/>
-    </row>
-    <row r="21" spans="2:5" ht="75" x14ac:dyDescent="0.45">
-      <c r="B21" s="16"/>
-      <c r="C21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="D36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B37" s="24"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="53"/>
-    </row>
-    <row r="22" spans="2:5" ht="225" x14ac:dyDescent="0.45">
-      <c r="B22" s="16"/>
-      <c r="C22" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="53"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="52"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="48"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="16"/>
-      <c r="C25" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="53"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="16"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="53"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="16"/>
-      <c r="C27" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="53"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="51"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="53"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="53"/>
-    </row>
-    <row r="30" spans="2:5" ht="195" x14ac:dyDescent="0.45">
-      <c r="B30" s="28"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="53"/>
-    </row>
-    <row r="31" spans="2:5" ht="60" x14ac:dyDescent="0.45">
-      <c r="B31" s="28"/>
-      <c r="C31" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="53"/>
-    </row>
-    <row r="32" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B32" s="28"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="53"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="28"/>
-      <c r="C33" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="53"/>
-    </row>
-    <row r="34" spans="2:5" ht="195" x14ac:dyDescent="0.45">
-      <c r="B34" s="28"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="53"/>
-    </row>
-    <row r="35" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B35" s="28"/>
-      <c r="C35" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="53"/>
-    </row>
-    <row r="36" spans="2:5" ht="390" x14ac:dyDescent="0.45">
-      <c r="B36" s="28"/>
-      <c r="C36" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="53"/>
-    </row>
-    <row r="37" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B37" s="30"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D39" s="56"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D39" s="45"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D40" s="1"/>
     </row>
   </sheetData>
@@ -8549,4 +7202,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F0449F-5911-40B0-99E2-96BEEBD50C56}">
+  <dimension ref="B1:D6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="3" style="56" customWidth="1"/>
+    <col min="3" max="3" width="61.25" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="96" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Applicants Node Operation Manual_English.xlsx
+++ b/Applicants Node Operation Manual_English.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\sanpo\applicant-node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396BFA8C-49B4-4082-A85A-9535F9970E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85768AA3-F3BE-4456-92D3-0324C2D26BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1230" windowWidth="23745" windowHeight="13095" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16200" yWindow="2595" windowWidth="20835" windowHeight="13095" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -41,30 +41,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
   <si>
     <t>admin.peers</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>net.peerCount</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sudo add-apt-repository -y ppa:ethereum/ethereum</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sudo apt update</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sudo apt install ethereum</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>After this operation, 108 MB of additional disk space will be used.
-Do you want to continue? [Y/n] Y</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -378,40 +361,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Added ethereum repository</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APT library information update</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Install Ethereum</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Check disk usage：Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Installation confirmation of Ethereum</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>-&gt; The version is displayed</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>example)
-ubuntu@ip-10-0-0-83:~$ geth version
-Geth
-Version: 1.10.5-stable
-Git Commit: 33ca98ece985f5085ac8ec19a49239d726850004
-Architecture: amd64
-Go Version: go1.16.4
-Operating System: linux
-GOPATH=
-GOROOT=go</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -858,6 +812,39 @@
   </si>
   <si>
     <t>Starting geth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Copy file to the /usr/bin directory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sudo cp ~/geth_1.10.26-stable /usr/bin/geth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Change permissions</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sudo chmod 755 /usr/bin/geth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>example)
+ubuntu@ip-10-0-0-83:~$ geth version
+Geth
+Version: 1.10.26-stable
+Git Commit: e5eb32acee19cc9fca6a03b10283b7484246b15a
+Architecture: amd64
+Go Version: go1.18.5
+Operating System: linux
+GOPATH=
+GOROOT=go</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Upload geth_1.10.26-stable binary file distributed by Github to home directory.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1134,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1211,9 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6076,191 +6060,191 @@
   <sheetData>
     <row r="15" spans="33:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="33:33" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="AG16" s="62" t="s">
-        <v>139</v>
+      <c r="AG16" s="61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="25:42" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="AG17" s="62" t="s">
-        <v>139</v>
+      <c r="AG17" s="61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="25:42" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="AG18" s="62" t="s">
-        <v>139</v>
+      <c r="AG18" s="61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="25:42" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="25:42" x14ac:dyDescent="0.25">
       <c r="AC20" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y22" s="57" t="s">
-        <v>141</v>
+      <c r="Y22" s="56" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y23" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="67"/>
-      <c r="AN23" s="67"/>
-      <c r="AO23" s="67"/>
-      <c r="AP23" s="67"/>
+      <c r="Y23" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
     </row>
     <row r="24" spans="25:42" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y24" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
+      <c r="Y24" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
     </row>
     <row r="25" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
     </row>
     <row r="26" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y26" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
+      <c r="Y26" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="55"/>
     </row>
     <row r="27" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y27" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD27" s="67"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="67"/>
-      <c r="AL27" s="67"/>
-      <c r="AM27" s="67"/>
-      <c r="AN27" s="67"/>
-      <c r="AO27" s="67"/>
-      <c r="AP27" s="67"/>
+      <c r="Y27" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="66"/>
+      <c r="AP27" s="66"/>
     </row>
     <row r="28" spans="25:42" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y28" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="66"/>
+      <c r="Y28" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="65"/>
     </row>
     <row r="29" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
     </row>
     <row r="30" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y30" s="57"/>
+      <c r="Y30" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6281,7 +6265,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C923CD88-22FD-49D2-8969-10F24C7334DC}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6297,89 +6281,79 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="22"/>
-      <c r="C8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>5</v>
+      <c r="C8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>10</v>
+    <row r="9" spans="2:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="24"/>
+      <c r="C9" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6409,7 +6383,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -6418,177 +6392,177 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
       <c r="C6" s="10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
-      <c r="C7" s="32" t="s">
-        <v>149</v>
+      <c r="C7" s="31" t="s">
+        <v>140</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="22"/>
-      <c r="C8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>11</v>
+      <c r="C8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" ht="223.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29"/>
-      <c r="C9" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>74</v>
+      <c r="B9" s="28"/>
+      <c r="C9" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="33" t="s">
-        <v>152</v>
+      <c r="B10" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B11" s="9"/>
       <c r="C11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="63" x14ac:dyDescent="0.4">
+      <c r="B12" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" ht="121.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="36"/>
+      <c r="C14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" ht="162" x14ac:dyDescent="0.4">
+      <c r="B16" s="39"/>
+      <c r="C16" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="39"/>
+      <c r="C17" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="40"/>
+      <c r="C18" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="63" x14ac:dyDescent="0.4">
-      <c r="B12" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" ht="101.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="37"/>
-      <c r="C14" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" ht="123.75" x14ac:dyDescent="0.4">
-      <c r="B16" s="40"/>
-      <c r="C16" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="41"/>
-      <c r="C18" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>85</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -6616,79 +6590,79 @@
   <sheetData>
     <row r="1" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="2:5" ht="303.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
     </row>
     <row r="9" spans="2:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
-        <v>97</v>
+      <c r="B9" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>1</v>
@@ -6698,22 +6672,22 @@
     <row r="10" spans="2:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="248.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
+        <v>91</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
@@ -6753,51 +6727,51 @@
   <sheetData>
     <row r="1" spans="2:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
@@ -6830,7 +6804,7 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
@@ -6838,7 +6812,7 @@
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -6846,35 +6820,35 @@
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -6882,237 +6856,237 @@
       <c r="B6" s="14"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
       <c r="C7" s="13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:6" ht="303" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="14"/>
-      <c r="C8" s="55" t="s">
-        <v>106</v>
+      <c r="C8" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:6" ht="252" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:6" ht="189" x14ac:dyDescent="0.4">
       <c r="B12" s="14"/>
       <c r="C12" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:6" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B13" s="14"/>
       <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:6" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B14" s="14"/>
       <c r="C14" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:6" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B15" s="14"/>
       <c r="C15" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:6" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B16" s="14"/>
       <c r="C16" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B17" s="14"/>
       <c r="C17" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B19" s="14"/>
       <c r="C19" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" ht="141.75" x14ac:dyDescent="0.4">
       <c r="B20" s="14"/>
       <c r="C20" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" ht="236.25" x14ac:dyDescent="0.4">
       <c r="B22" s="14"/>
       <c r="C22" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>45</v>
+      <c r="B23" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>41</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="42"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="44" t="s">
-        <v>46</v>
+      <c r="B24" s="41"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="14"/>
-      <c r="C25" s="43" t="s">
-        <v>122</v>
+      <c r="C25" s="42" t="s">
+        <v>113</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="14"/>
-      <c r="C26" s="49"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="14"/>
-      <c r="C27" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>47</v>
+      <c r="C27" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="9"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="44" t="s">
-        <v>48</v>
+      <c r="C28" s="48"/>
+      <c r="D28" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E29" s="8"/>
     </row>
@@ -7120,17 +7094,17 @@
       <c r="B30" s="22"/>
       <c r="C30" s="14"/>
       <c r="D30" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" ht="63" x14ac:dyDescent="0.4">
       <c r="B31" s="22"/>
       <c r="C31" s="13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E31" s="8"/>
     </row>
@@ -7138,17 +7112,17 @@
       <c r="B32" s="22"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="22"/>
       <c r="C33" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E33" s="8"/>
     </row>
@@ -7156,35 +7130,35 @@
       <c r="B34" s="22"/>
       <c r="C34" s="14"/>
       <c r="D34" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="2:5" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B35" s="22"/>
       <c r="C35" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="B36" s="22"/>
       <c r="C36" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="2:5" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B37" s="24"/>
-      <c r="C37" s="38"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E37" s="21"/>
     </row>
@@ -7192,7 +7166,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D39" s="45"/>
+      <c r="D39" s="44"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D40" s="1"/>
@@ -7212,46 +7186,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="3" style="56" customWidth="1"/>
-    <col min="3" max="3" width="61.25" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="120.875" style="56" customWidth="1"/>
-    <col min="5" max="5" width="96" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="2.625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="3" style="55" customWidth="1"/>
+    <col min="3" max="3" width="61.25" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="96" style="55" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="57" t="s">
-        <v>135</v>
+      <c r="B1" s="56" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="56" t="s">
-        <v>134</v>
+      <c r="B3" s="55" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="162" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>129</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="162" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
